--- a/liste_profiles/Cornieres.xlsx
+++ b/liste_profiles/Cornieres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edfonline-my.sharepoint.com/personal/sylvain_blondin_edf_fr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sylva\Desktop\Linear-supports-main\liste_profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{05E07A95-886F-48FB-BC3D-9009C9BC9129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C630ED88-B186-4F5B-9563-826D9AF531B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730D46D0-393D-41D9-A0EA-630F2488E7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F5F73B9-AD16-45EC-B5C8-C3BD7161EBA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F5F73B9-AD16-45EC-B5C8-C3BD7161EBA5}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,44 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>sylva</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{51B1CE49-324E-4442-9306-F4AD5C18C4E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>sylva:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+valeurs en jaune modifiées pour éviter erreurs de calcul (rayon=épaisseur)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
@@ -258,9 +283,6 @@
     <t>Dim</t>
   </si>
   <si>
-    <t>valeurs en jaune modifiées pour éviter erreur de calcul (rayon=épaisseur)</t>
-  </si>
-  <si>
     <t>100x100x11</t>
   </si>
   <si>
@@ -274,19 +296,35 @@
   </si>
   <si>
     <t>100x100x18</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -315,16 +353,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,16 +674,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EECB3C3-5FEC-43F7-940B-8845FC8749C2}">
-  <dimension ref="A1:G75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EECB3C3-5FEC-43F7-940B-8845FC8749C2}">
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -656,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -676,16 +711,19 @@
         <v>35</v>
       </c>
       <c r="C2" s="1">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -693,16 +731,19 @@
         <v>35</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
       </c>
       <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -710,16 +751,19 @@
         <v>40</v>
       </c>
       <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
-        <v>6</v>
-      </c>
       <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -727,16 +771,19 @@
         <v>40</v>
       </c>
       <c r="C5" s="1">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
       <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -744,16 +791,19 @@
         <v>40</v>
       </c>
       <c r="C6" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
       </c>
       <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -761,16 +811,19 @@
         <v>45</v>
       </c>
       <c r="C7" s="1">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>2.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
@@ -778,16 +831,19 @@
         <v>45</v>
       </c>
       <c r="C8" s="1">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -795,16 +851,19 @@
         <v>45</v>
       </c>
       <c r="C9" s="1">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1">
         <v>4.5</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -812,16 +871,19 @@
         <v>45</v>
       </c>
       <c r="C10" s="1">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,16 +891,19 @@
         <v>45</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
         <v>7</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,16 +911,19 @@
         <v>45</v>
       </c>
       <c r="C12" s="1">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
       </c>
       <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,16 +931,19 @@
         <v>50</v>
       </c>
       <c r="C13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,16 +951,19 @@
         <v>50</v>
       </c>
       <c r="C14" s="1">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
         <v>5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>7</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -897,16 +971,19 @@
         <v>50</v>
       </c>
       <c r="C15" s="1">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
         <v>7</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,16 +991,19 @@
         <v>50</v>
       </c>
       <c r="C16" s="1">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>
       </c>
       <c r="E16" s="1">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,16 +1011,19 @@
         <v>50</v>
       </c>
       <c r="C17" s="1">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1">
         <v>8</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>7</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -948,16 +1031,19 @@
         <v>50</v>
       </c>
       <c r="C18" s="1">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
         <v>7</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -965,16 +1051,19 @@
         <v>55</v>
       </c>
       <c r="C19" s="1">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1">
         <v>4</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>8</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -982,16 +1071,19 @@
         <v>55</v>
       </c>
       <c r="C20" s="1">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>8</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -999,16 +1091,19 @@
         <v>55</v>
       </c>
       <c r="C21" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
         <v>8</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,16 +1111,19 @@
         <v>60</v>
       </c>
       <c r="C22" s="1">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>8</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1033,16 +1131,19 @@
         <v>60</v>
       </c>
       <c r="C23" s="1">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
         <v>5</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>8</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -1050,16 +1151,19 @@
         <v>60</v>
       </c>
       <c r="C24" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1">
         <v>8</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1067,16 +1171,19 @@
         <v>60</v>
       </c>
       <c r="C25" s="1">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1">
         <v>7</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>8</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -1084,16 +1191,19 @@
         <v>60</v>
       </c>
       <c r="C26" s="1">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1">
         <v>8</v>
       </c>
       <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1101,16 +1211,19 @@
         <v>60</v>
       </c>
       <c r="C27" s="1">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1">
         <v>10</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>8</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -1118,16 +1231,19 @@
         <v>63</v>
       </c>
       <c r="C28" s="1">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="D28" s="1">
-        <v>9</v>
-      </c>
       <c r="E28" s="1">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1135,16 +1251,19 @@
         <v>63</v>
       </c>
       <c r="C29" s="1">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1152,16 +1271,19 @@
         <v>63</v>
       </c>
       <c r="C30" s="1">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1">
         <v>6.5</v>
       </c>
-      <c r="D30" s="1">
-        <v>9</v>
-      </c>
       <c r="E30" s="1">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1169,16 +1291,19 @@
         <v>65</v>
       </c>
       <c r="C31" s="1">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="1">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2">
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1186,16 +1311,19 @@
         <v>65</v>
       </c>
       <c r="C32" s="1">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="D32" s="1">
-        <v>9</v>
-      </c>
       <c r="E32" s="1">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -1203,16 +1331,19 @@
         <v>65</v>
       </c>
       <c r="C33" s="1">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -1220,16 +1351,19 @@
         <v>65</v>
       </c>
       <c r="C34" s="1">
+        <v>65</v>
+      </c>
+      <c r="D34" s="1">
         <v>7</v>
       </c>
-      <c r="D34" s="1">
-        <v>9</v>
-      </c>
       <c r="E34" s="1">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1237,16 +1371,19 @@
         <v>65</v>
       </c>
       <c r="C35" s="1">
+        <v>65</v>
+      </c>
+      <c r="D35" s="1">
         <v>8</v>
       </c>
-      <c r="D35" s="1">
-        <v>9</v>
-      </c>
       <c r="E35" s="1">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -1254,16 +1391,19 @@
         <v>65</v>
       </c>
       <c r="C36" s="1">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D36" s="1">
         <v>9</v>
       </c>
       <c r="E36" s="1">
+        <v>9</v>
+      </c>
+      <c r="F36" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -1271,16 +1411,19 @@
         <v>65</v>
       </c>
       <c r="C37" s="1">
+        <v>65</v>
+      </c>
+      <c r="D37" s="1">
         <v>10</v>
       </c>
-      <c r="D37" s="1">
-        <v>9</v>
-      </c>
       <c r="E37" s="1">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -1288,16 +1431,19 @@
         <v>65</v>
       </c>
       <c r="C38" s="1">
+        <v>65</v>
+      </c>
+      <c r="D38" s="1">
         <v>11</v>
       </c>
-      <c r="D38" s="1">
-        <v>9</v>
-      </c>
       <c r="E38" s="1">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1305,16 +1451,19 @@
         <v>70</v>
       </c>
       <c r="C39" s="1">
+        <v>70</v>
+      </c>
+      <c r="D39" s="1">
         <v>5</v>
       </c>
-      <c r="D39" s="1">
-        <v>9</v>
-      </c>
       <c r="E39" s="1">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1322,16 +1471,19 @@
         <v>70</v>
       </c>
       <c r="C40" s="1">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1">
+        <v>9</v>
+      </c>
+      <c r="F40" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1339,16 +1491,19 @@
         <v>70</v>
       </c>
       <c r="C41" s="1">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1">
         <v>7</v>
       </c>
-      <c r="D41" s="1">
-        <v>9</v>
-      </c>
       <c r="E41" s="1">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1356,16 +1511,19 @@
         <v>70</v>
       </c>
       <c r="C42" s="1">
+        <v>70</v>
+      </c>
+      <c r="D42" s="1">
         <v>8</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>10</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1373,16 +1531,19 @@
         <v>70</v>
       </c>
       <c r="C43" s="1">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D43" s="1">
         <v>9</v>
       </c>
       <c r="E43" s="1">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1390,16 +1551,19 @@
         <v>70</v>
       </c>
       <c r="C44" s="1">
+        <v>70</v>
+      </c>
+      <c r="D44" s="1">
         <v>10</v>
       </c>
-      <c r="D44" s="1">
-        <v>9</v>
-      </c>
       <c r="E44" s="1">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1407,16 +1571,19 @@
         <v>75</v>
       </c>
       <c r="C45" s="1">
+        <v>75</v>
+      </c>
+      <c r="D45" s="1">
         <v>4</v>
       </c>
-      <c r="D45" s="1">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2">
         <v>3.9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1424,16 +1591,19 @@
         <v>75</v>
       </c>
       <c r="C46" s="1">
+        <v>75</v>
+      </c>
+      <c r="D46" s="1">
         <v>5</v>
       </c>
-      <c r="D46" s="1">
-        <v>9</v>
-      </c>
       <c r="E46" s="1">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1441,16 +1611,19 @@
         <v>75</v>
       </c>
       <c r="C47" s="1">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D47" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E47" s="1">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1458,16 +1631,19 @@
         <v>75</v>
       </c>
       <c r="C48" s="1">
+        <v>75</v>
+      </c>
+      <c r="D48" s="1">
         <v>7</v>
       </c>
-      <c r="D48" s="1">
-        <v>9</v>
-      </c>
       <c r="E48" s="1">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1475,16 +1651,19 @@
         <v>75</v>
       </c>
       <c r="C49" s="1">
+        <v>75</v>
+      </c>
+      <c r="D49" s="1">
         <v>8</v>
       </c>
-      <c r="D49" s="1">
-        <v>9</v>
-      </c>
       <c r="E49" s="1">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1492,16 +1671,19 @@
         <v>75</v>
       </c>
       <c r="C50" s="1">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D50" s="1">
         <v>9</v>
       </c>
       <c r="E50" s="1">
+        <v>9</v>
+      </c>
+      <c r="F50" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1509,16 +1691,19 @@
         <v>75</v>
       </c>
       <c r="C51" s="1">
+        <v>75</v>
+      </c>
+      <c r="D51" s="1">
         <v>10</v>
       </c>
-      <c r="D51" s="1">
-        <v>9</v>
-      </c>
       <c r="E51" s="1">
+        <v>9</v>
+      </c>
+      <c r="F51" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1526,16 +1711,19 @@
         <v>80</v>
       </c>
       <c r="C52" s="1">
+        <v>80</v>
+      </c>
+      <c r="D52" s="1">
         <v>5</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>10</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1543,16 +1731,19 @@
         <v>80</v>
       </c>
       <c r="C53" s="1">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D53" s="1">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1">
         <v>10</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1560,16 +1751,19 @@
         <v>80</v>
       </c>
       <c r="C54" s="1">
+        <v>80</v>
+      </c>
+      <c r="D54" s="1">
         <v>7</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>10</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1577,16 +1771,19 @@
         <v>80</v>
       </c>
       <c r="C55" s="1">
+        <v>80</v>
+      </c>
+      <c r="D55" s="1">
         <v>8</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="1">
         <v>10</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1594,16 +1791,19 @@
         <v>80</v>
       </c>
       <c r="C56" s="1">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D56" s="1">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1">
         <v>10</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1611,16 +1811,19 @@
         <v>80</v>
       </c>
       <c r="C57" s="1">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D57" s="1">
         <v>10</v>
       </c>
       <c r="E57" s="1">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1628,16 +1831,19 @@
         <v>90</v>
       </c>
       <c r="C58" s="1">
+        <v>90</v>
+      </c>
+      <c r="D58" s="1">
         <v>5</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1">
         <v>11</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>52</v>
       </c>
@@ -1645,16 +1851,19 @@
         <v>90</v>
       </c>
       <c r="C59" s="1">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="D59" s="1">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1">
         <v>11</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1662,16 +1871,19 @@
         <v>90</v>
       </c>
       <c r="C60" s="1">
+        <v>90</v>
+      </c>
+      <c r="D60" s="1">
         <v>7</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <v>11</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>54</v>
       </c>
@@ -1679,16 +1891,19 @@
         <v>90</v>
       </c>
       <c r="C61" s="1">
+        <v>90</v>
+      </c>
+      <c r="D61" s="1">
         <v>8</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>11</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>55</v>
       </c>
@@ -1696,16 +1911,19 @@
         <v>90</v>
       </c>
       <c r="C62" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D62" s="1">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1">
         <v>11</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
@@ -1713,16 +1931,19 @@
         <v>90</v>
       </c>
       <c r="C63" s="1">
+        <v>90</v>
+      </c>
+      <c r="D63" s="1">
         <v>10</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
         <v>11</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>57</v>
       </c>
@@ -1730,16 +1951,19 @@
         <v>90</v>
       </c>
       <c r="C64" s="1">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D64" s="1">
         <v>11</v>
       </c>
       <c r="E64" s="1">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>58</v>
       </c>
@@ -1747,16 +1971,19 @@
         <v>90</v>
       </c>
       <c r="C65" s="1">
+        <v>90</v>
+      </c>
+      <c r="D65" s="1">
         <v>16</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="1">
         <v>11</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>59</v>
       </c>
@@ -1764,16 +1991,19 @@
         <v>100</v>
       </c>
       <c r="C66" s="1">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D66" s="1">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1">
         <v>12</v>
       </c>
-      <c r="E66" s="2">
+      <c r="F66" s="2">
         <v>5.9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>60</v>
       </c>
@@ -1781,16 +2011,19 @@
         <v>100</v>
       </c>
       <c r="C67" s="1">
+        <v>100</v>
+      </c>
+      <c r="D67" s="1">
         <v>7</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>12</v>
       </c>
-      <c r="E67" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
@@ -1798,16 +2031,19 @@
         <v>100</v>
       </c>
       <c r="C68" s="1">
+        <v>100</v>
+      </c>
+      <c r="D68" s="1">
         <v>8</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <v>12</v>
       </c>
-      <c r="E68" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>62</v>
       </c>
@@ -1815,16 +2051,19 @@
         <v>100</v>
       </c>
       <c r="C69" s="1">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D69" s="1">
+        <v>9</v>
+      </c>
+      <c r="E69" s="1">
         <v>12</v>
       </c>
-      <c r="E69" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>63</v>
       </c>
@@ -1832,102 +2071,121 @@
         <v>100</v>
       </c>
       <c r="C70" s="1">
+        <v>100</v>
+      </c>
+      <c r="D70" s="1">
         <v>10</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <v>12</v>
       </c>
-      <c r="E70" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="1">
         <v>100</v>
       </c>
       <c r="C71" s="1">
+        <v>100</v>
+      </c>
+      <c r="D71" s="1">
         <v>11</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="1">
         <v>12</v>
       </c>
-      <c r="E71" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="1">
         <v>100</v>
       </c>
       <c r="C72" s="1">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D72" s="1">
         <v>12</v>
       </c>
       <c r="E72" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="1">
         <v>100</v>
       </c>
       <c r="C73" s="1">
+        <v>100</v>
+      </c>
+      <c r="D73" s="1">
         <v>14</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <v>12</v>
       </c>
-      <c r="E73" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="1">
         <v>100</v>
       </c>
       <c r="C74" s="1">
+        <v>100</v>
+      </c>
+      <c r="D74" s="1">
         <v>16</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <v>12</v>
       </c>
-      <c r="E74" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" s="1">
         <v>100</v>
       </c>
       <c r="C75" s="1">
+        <v>100</v>
+      </c>
+      <c r="D75" s="1">
         <v>18</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>12</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>